--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1293.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1293.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.890849570844797</v>
+        <v>1.124546527862549</v>
       </c>
       <c r="B1">
-        <v>1.883556631297038</v>
+        <v>2.272533416748047</v>
       </c>
       <c r="C1">
-        <v>5.712480329919101</v>
+        <v>10.25321006774902</v>
       </c>
       <c r="D1">
-        <v>2.771306441173056</v>
+        <v>1.943143606185913</v>
       </c>
       <c r="E1">
-        <v>1.381861579769177</v>
+        <v>1.285963654518127</v>
       </c>
     </row>
   </sheetData>
